--- a/DOWNLOADS/EDITAIS/U_158009_E_3362025/U_158009_E_3362025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_158009_E_3362025/U_158009_E_3362025_master.xlsx
@@ -43,7 +43,7 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>MICROFONE DE LAPELA SEM FIO, DUPLO, COR PRETO, ESTILO BOTÃO, COM FREQUÊNCIA DE OPERAÇÃO DE 2,4GHZ. DEVE POSSUIR CLIPES MAGNÉTICOS PARA FIXAÇÃO ALÉM DE ESTOJOS PARA FIXAÇÃO DO SISTEMA DE MICROFONE E TRANSMISSOR. DEVE POSSUIR ANTENAS DE ALTO GANHO, COM CAPACIDADE DE ALCANCE DE ATÉ 1000 PÉS DE DISTÂNCIA E SISTEMA DE CANCELAMENTO DE RUÍDO. O SISTEMA DE MICROFONE DEVE TER 2 TRANSMISSORES COM MICROFONES INTEGRADOS, E RECEPTORES PARA RECEBIMENTO DE ATÉ 1000 PÉS DE DISTÂNCIA. SISTEMA DE CARREGAMENTO INTEGRADO. CONTEÚDO DA EMBALAGEM: 2 TRANSMISSORES; 1 RECEPTOR (CÂMERA); 1 RECEPTOR (LIGHTNING); 1 RECEPTOR (USB-C); 1 ESTOJO DE CARREGAMENTO VERSÃO COMBO; 2 PÁRA-BRISA PELUDOS; 1 CABO TRS DE 3,5 MM PARA TRS DE 3,5 MM; 1 CABO USB-A PARA USB-C E 1 GUIA RÁPIDO. MODELO DE REFERÊNCIA: HOLLYLAND LARK M2 DUO.</t>
+    <t>MICROFONE DE LAPELA SEM FIO, DUPLO, COR PRETO, ESTILO BOTÃO, COM FREQUÊNCIA DE OPERAÇÃO DE 2,4GHZ. DEVE POSSUIR CLIPES MAGNÉTICOS PARA FIXAÇÃO ALÉM DE ESTOJOS PARA FIXAÇÃO DO SISTEMA DE MICROFONE E TRANSMISSOR. DEVE POSSUIR ANTENAS DE ALTO GANHO, COM CAPACIDADE DE ALCANCE DE ATÉ 1000 PÉS DE DISTÂNCIA E SISTEMA DE CANCELAMENTO DE RUÍDO. O SISTEMA DE MICROFONE DEVE TER 2 TRANSMISSORES COM 1 MICROFONES INTEGRADOS, E RECEPTORES PARA RECEBIMENTO DE ATÉ 1000 PÉS DE DISTÂNCIA. SISTEMA DE CARREGAMENTO INTEGRADO. CONTEÚDO DA EMBALAGEM: 2 TRANSMISSORES; 1 RECEPTOR (CÂMERA); 1 RECEPTOR (LIGHTNING); 1 RECEPTOR (USB-C); 1 ESTOJO DE CARREGAMENTO VERSÃO COMBO; 2 PÁRA-BRISA PELUDOS; 1 CABO TRS DE 3,5 MM PARA TRS DE 3,5 MM; 1 CABO USB-A PARA USB-C E 1 GUIA RÁPIDO. MODELO DE REFERÊNCIA: HOLLYLAND LARK M2 DUO.</t>
   </si>
   <si>
     <t>MICROFONE DE MÃO SEM FIO PROFISSIONAL: SISTEMA DE MICROFONE DE MÃO (TIPO BASTÃO), SEM FIO, PROFISSIONAL, COM RECEPTOR. ALCANCE DE 100 METROS. FREQUÊNCIA DE OPERAÇÃO ENTRE 584 A 608MHZ. SISTEMAS SIMULTÂNEOS POR BANDA: ATÉ 12. RESPOSTA DE FREQUÊNCIA: 50HZ-15KHZ. TIPO DE MICROFONE: CONDENSADOR. CAPACIDADE DE TRABALHO COM PILHAS TIPO AA: 14 HORAS ININTERRUPTAS. CONTEÚDO DA EMBALAGEM: SISTEMA SEM FIO COM MICROFONE DE MÃO COM TRANSMISSOR, RECEPTOR MONTÁVEL EM RACK E ACESSÓRIOS. MODELO DE REFERÊNCIA: MICROFONE DINÂMICO SHURE BLX24BR/SM58.</t>
@@ -55,19 +55,19 @@
     <t>MESA DE SOM 12 CANAIS DE ENTRADA: MESA DE SOM ANALÓGICA, COM 12 CANAIS DE ENTRADA E 2 BARRAMENTOS DE SAÍDA INDEPENDENTES, PRÉ AMPLIFICADO. CANAIS DE ENTRADAS COM EQUALIZADOR DE 3 BANDAS E SISTEMA DE COMPRESSOR EM PELO MENOS 4 CANAIS DE MICROFONE, COM EQUALIZADOR GRÁFICO DE 7 BANDAS. DEVE POSSUIR SISTEMA DE EFEITOS, COM NO MÍNIMO EFEITO HALL, ROOM, PLATE, GATED, REVERSE, DELAY, ECHO E CHORUS. DEVE POSSUIR INTERFACE USB DE ÁUDIO, ALÉM DE OPÇÃO DE PHANTON POWER DE +48V EM PELO MENOS 4 CANAIS. ACOMPANHA: SOFTWARE DE PRODUÇÃO MUSICAL COMPATÍVEL COM MAC E WINDOWS, E ADAPTADOR DE ENERGIA. MODELO DE REFERÊNCIA: MESA DE SOM DE 12 CANAIS BEHRINGER XENYX BIVOLT X1222 USB.</t>
   </si>
   <si>
-    <t>SISTEMA DE SOM LINE ARRAY VERTICAL. SISTEMA DE SOM AMPLIFICADO VERTICAL ARRAY ULTRA-COMPACTO, COMPOSTO POR UM SUBWOOFER AMPLIFICADO CLASSE D, COM ALTO FALANTE DE 10 POLEGADAS E UM SISTEMA FULL-RANGE, COMPOSTO POR 4 FALANTES DE NEODÍMIO DE NO MÍNIMO 3,5" POLEGADAS, TOTALIZADO NO MÍNIMO 300W RMS. O SISTEMA DEVE POSSUIR SISTEMA DE AMPLIFICAÇÃO COMPLETO, COM REPOSTA DE FREQUENCIA DE 50Hz A 18KHz. SISTEMA DE BI-AMPLIFICAÇÃO, COM 5 PRESETS DE EQUALIZAÇÃO. GABINETE DE POLÍMERO DE ALTO IMPACTO. MONTAGEM MODULAR COM ATÉ 4 NÍVEIS DE ALTURA. CONTROLE INTERNO POR DSP, ENTRADA PARA MICROFONE, ENTRADA DE LINHA E CONECTIVIDADE ENTRE CAIXAS VIA BLUETOOTH (SISTEMA TWS). ALIMENTAÇÃO BIVOLT AUTOMÁTICA EM CORRENTE ALTERNADA. DEVE POSSUIR BAG PARA TRANSPORTE. MODELO DE REFERÊNCIA: SISTEMA STANER TWS-410 SUB 10" 300W.</t>
+    <t>SISTEMA DE SOM LINE ARRAY VERTICAL. SISTEMA DE SOM AMPLIFICADO VERTICAL ARRAY ULTRA-COMPACTO, COMPOSTO POR UM SUBWOOFER AMPLIFICADO CLASSE D, COM ALTO FALANTE DE 10 POLEGADAS E UM SISTEMA FULL-RANGE, COMPOSTO POR 4 FALANTES DE NEODÍMIO DE NO MÍNIMO 3,5" POLEGADAS, TOTALIZADO NO MÍNIMO 300W RMS. O SISTEMA DEVE POSSUIR SISTEMA DE AMPLIFICAÇÃO COMPLETO, COM REPOSTA DE FREQUÊNCIA DE 50Hz A 18KHz. SISTEMA DE BI-AMPLIFICAÇÃO, COM 5 PRESETS DE EQUALIZAÇÃO. GABINETE DE POLÍMERO DE ALTO IMPACTO. MONTAGEM MODULAR COM ATÉ 4 NÍVEIS DE ALTURA. CONTROLE INTERNO POR DSP, ENTRADA PARA MICROFONE, ENTRADA DE LINHA E CONECTIVIDADE ENTRE CAIXAS VIA BLUETOOTH (SISTEMA TWS). ALIMENTAÇÃO BIVOLT AUTOMÁTICA EM CORRENTE ALTERNADA. DEVE POSSUIR BAG PARA TRANSPORTE. MODELO DE REFERÊNCIA: SISTEMA STANER TWS-410 SUB 10" 300W.</t>
   </si>
   <si>
     <t>CAIXA ATIVA AMPLIFICADA SUBWOOFER, COM ALTO FALANTE DE 18 POLEGADAS, ALIMENTAÇÃO BIVOLT EM CORRENTE ALTERNADA. POTÊNCIA 600WRMS. SISTEMA DE CLIP LIMITER INTELIGENTE, CHAVE SELETORA DE SAÍDA, PROTEÇÃO CONTRA CURTO CIRCUITO E PROTEÇÃO TÉRMICA. RESPOSTA DE FREQUÊNCIA 95HZ A 480HZ, COM DB SPL MÁX CONTÍNUO DE 113DB. CAIXA COM ALÇAS PARA TRANSPORTE, TELA FRONTAL DE PROTEÇÃO DO SUBWOOFER COM PINTURA ELETROSTÁTICA, PINTURA EM RESINA COM PROTEÇÃO CONTRA ÁGUA. COR PRETA. MODELO DE REFERÊNCIA: CAIXA ATIVA SUBWOOFER OPSB 3218X 600W 18" BIVOLT ONEAL.</t>
   </si>
   <si>
-    <t>CAIXA AMPLIFICADA FULL RANGE ATIVA, COMPOSTO POR 2 ALTOFALANTES DE 15 POLEGADAS E 1 DRIVER DE TITÂNIO. CAIXA EM MDF COM PINTURA EM RESINA DE ALTO IMPACTO E TELA COM PINTURA ELETROSTÁTICA. SISTEMA AMPLIFICADO COM AMPLIFICADOR CLASSE D, COM POTÊNCIA TOTAL DE 650W RMS E EFICIÊNCIA DE 136 DB SPL. RESPOSTA DE FREQUÊNCIA DE 50HZ A 18KHZ, COM CONTROLE DE GRAVE, MÉDIO, AGUDO, ENTRADA PARA MICROFONE E LINHA BALANCEADA, COM CONTROLES INDEPENDENTES DE VOLUME. CONECTIVIDADE BLUETOOTH E PROTEÇÃO CONTRA CURTO CIRCUITO.DocumentoCONTEÚDOde FormalizaçãoDA EMBALAGEM:da DemandaCAIXA 3789645AMPLIFICADORA;SEI 23411.016238/2025-87CONTROLE / pg. 2REMOTO; MANUAL DE INSTRUÇÕES E GARANTIA. MODELO DE REFERÊNCIA: CAIXA ATIVA ONEAL OPB-5060D COM 2 FALANTES DE 15".</t>
+    <t>CAIXA AMPLIFICADA FULL RANGE ATIVA, COMPOSTO POR 2 ALTOFALANTES DE 15 POLEGADAS E 1 DRIVER DE TITÂNIO. CAIXA EM MDF COM PINTURA EM RESINA DE ALTO IMPACTO E TELA COM PINTURA ELETROSTÁTICA. SISTEMA AMPLIFICADO COM AMPLIFICADOR CLASSE D, COM POTÊNCIA TOTAL DE 650W RMS E EFICIÊNCIA DE 136 DB SPL. RESPOSTA DE FREQUÊNCIA DE 50HZ A 18KHZ, COM CONTROLE DE GRAVE, MÉDIO, AGUDO, ENTRADA PARA MICROFONE E LINHA BALANCEADA, COM CONTROLES INDEPENDENTES DE VOLUME. CONECTIVIDADE BLUETOOTH E PROTEÇÃO CONTRA CURTO CIRCUITO. MODELO DE REFERÊNCIA: CAIXA ATIVA ONEAL OPB-5060D COM 2 FALANTES DE 15"."</t>
   </si>
   <si>
     <t>PROCESSADOR DE ÁUDIO PROFISSIONAL DIGITAL, COM SISTEMAS DE EFEITOS. COM CAPACIDADE PARA 06 SAÍDAS. COM DELAY DE ALINHAMENTO DE 10MS POR CANAL E COMPRIMENTO DO DELAY DE ENTRADA DE 100MS. PROCESSADOR DIGITAL COM TAXA DE AMOSTRAGEM DE 48KHZ E TDH DE 0,003%. RESPOSTA DE FREQUÊNCIA DE 20HZ A 20KHZ. ALIMENTAÇÃO EM CORRENTE ALTERNADA DE 100 -120VAC 50/60HZ. COM DUAS ENTRADAS DE LINHA E 01 ENTRADA DE MICROFONE, SENDO AS ENTRADAS BALANCEADAS ELETRONICAMENTE. POSSUIR SISTEMA DE CONEXÃO DE GERENCIAMENTO COMPATÍVEL COM ANDROID, MAC, PC E IOS. SISTEMA DE ELIMINAÇÃO DE RETORNO, (AFS) E SISTEMA DE AUTO EQUALIZAÇÃO. SISTEMA DE CROSSOVER E EQUALIZAÇÃO. MODELO DE REFERÊNCIA: PROCESSADOR DE EFEITOS DBX PA2.</t>
   </si>
   <si>
-    <t>DIRECT BOX ATIVO COM IMPEDÂNCIA DE ENTRADA &gt; 250KOHM. ENTRADA E LINK OUT COM CONECTOR JACK ¼” DESBALANCEADO E ENTRADA XLR DESBALANCEADO. POSSUI SAÍDA XLR LANAVEADO; 02 CHAVES ATENUADORAS DE 2DB, PODENDO ATENUAR O TOTAL DE 40DB. FREQUÊNCIA DE OPERAÇÃO DE 10HZ A 93KHZ. ALIMENTAÇÃO VIA PHANTOM POWER DE 18VDC A 48VDC OU BATERIA 9V. PROCESSADOR DE ÁUDIO PROFISSIONAL DIGITAL, COM SISTEMAS DE EFEITOS. COM CAPACIDADE PARA 06 SAÍDAS. CHAVE PARA SELEÇÃO DO TIPO GROUND. MODELO DE REFERÊNCIA: DIRECT BOX BEHRINGER DI-100 ATIVO.</t>
+    <t>DIRECT BOX ATIVO COM IMPEDÂNCIA DE ENTRADA &gt; 250KOHM. ENTRADA E LINK OUT COM CONECTOR JACK ¼” DESBALANCEADO E ENTRADA XLR DESBALANCEADO. POSSUI SAÍDA XLR LANAVEADO; 02 CHAVES ATENUADORAS DE 2DB, PODENDO ATENUAR O TOTAL DE 40DB. FREQUÊNCIA DE OPERAÇÃO DE 10HZ A 93KHZ. ALIMENTAÇÃO VIA PHANTOM POWER DE 18VDC A 48VDC OU BATERIA 9V. MODELO DE REFERÊNCIA: DIRECT BOX BEHRINGER DI-100 ATIVO.</t>
   </si>
   <si>
     <t>U_158009_E_3362025</t>
